--- a/Diagrama Sequencial.xlsx
+++ b/Diagrama Sequencial.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellington\Documents\GitHub\Enfermagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFBBD7-1FD5-4BBF-95D7-E688260DF564}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB22A05-22C5-477A-9D2D-9F07124F38B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A901F8A-986E-4A19-AAAC-980A2D6975B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1A901F8A-986E-4A19-AAAC-980A2D6975B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="DiagramaSequencial" sheetId="1" r:id="rId1"/>
+    <sheet name="Agendamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Cadastro paciente" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Diagrama Sequencial Agendamento</t>
+  </si>
+  <si>
+    <t>Diagrama Sequencial Cadastro Paciente</t>
   </si>
 </sst>
 </file>
@@ -73,10 +77,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -134,6 +138,61 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="9220200" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCD3AB4-67F7-4575-BC23-447EDCDB5C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="9048750" cy="4178460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,47 +503,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F33A9E8-DA19-4B0D-89AC-F5813AD21AEB}">
   <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -494,4 +553,59 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4054A2-10E4-49BB-950D-D919C3FFE776}">
+  <dimension ref="A2:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:O3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Diagrama Sequencial.xlsx
+++ b/Diagrama Sequencial.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellington\Documents\GitHub\Enfermagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB22A05-22C5-477A-9D2D-9F07124F38B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD20FAF-B398-4116-9731-A316DDE96D24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1A901F8A-986E-4A19-AAAC-980A2D6975B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{1A901F8A-986E-4A19-AAAC-980A2D6975B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Agendamento" sheetId="1" r:id="rId1"/>
     <sheet name="Cadastro paciente" sheetId="2" r:id="rId2"/>
+    <sheet name="Consulta Paciente" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Diagrama Sequencial Agendamento</t>
   </si>
   <si>
     <t>Diagrama Sequencial Cadastro Paciente</t>
+  </si>
+  <si>
+    <t>Diagrama Sequencial Consulta Paciente</t>
   </si>
 </sst>
 </file>
@@ -193,6 +197,61 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="9048750" cy="4178460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986004DE-BA8C-45C4-99F4-C9503DB062C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="561975"/>
+          <a:ext cx="9010650" cy="4178460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4054A2-10E4-49BB-950D-D919C3FFE776}">
   <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,4 +667,59 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A679B347-8F9C-4E5D-BD46-9A8CAA263677}">
+  <dimension ref="A2:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:O3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>